--- a/MainAssignmnet/MoviesInfo.xlsx
+++ b/MainAssignmnet/MoviesInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vuchander\Python_Track\MainAssignmnet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EAA56D-4C57-4209-A67A-B35310A6CBB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444B7874-5B34-4DAC-957B-C5B3BC60EBB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Moviename</t>
   </si>
@@ -40,19 +40,34 @@
     <t>Admin Rating</t>
   </si>
   <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Timings</t>
+    <t>Timing-1</t>
+  </si>
+  <si>
+    <t>Timing-2</t>
+  </si>
+  <si>
+    <t>No of shows in a day</t>
+  </si>
+  <si>
+    <t>firstShow</t>
+  </si>
+  <si>
+    <t>Interval Time</t>
+  </si>
+  <si>
+    <t>Gap Between Shows</t>
   </si>
   <si>
     <t>Capacity</t>
   </si>
   <si>
+    <t>Bahubali</t>
+  </si>
+  <si>
     <t>Action</t>
   </si>
   <si>
-    <t>3 hr 30 min</t>
+    <t>3 hr 15 min</t>
   </si>
   <si>
     <t>Prabhas</t>
@@ -61,12 +76,6 @@
     <t>rajamouli</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>Bahubali</t>
-  </si>
-  <si>
     <t>dammu</t>
   </si>
   <si>
@@ -76,7 +85,28 @@
     <t>ntr</t>
   </si>
   <si>
-    <t>teligu</t>
+    <t>RRR</t>
+  </si>
+  <si>
+    <t>3hr15min</t>
+  </si>
+  <si>
+    <t>Ramcharan,Ntr,aliaBhatt</t>
+  </si>
+  <si>
+    <t>2:00-5:00</t>
+  </si>
+  <si>
+    <t>10:00-1:30</t>
+  </si>
+  <si>
+    <t>10:00-1:00</t>
+  </si>
+  <si>
+    <t>2 :00-5:30</t>
+  </si>
+  <si>
+    <t>2:00-5:30</t>
   </si>
 </sst>
 </file>
@@ -112,8 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -405,12 +436,17 @@
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="15.08984375" customWidth="1"/>
     <col min="3" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="14.1796875" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="16.90625" customWidth="1"/>
+    <col min="11" max="11" width="12.90625" customWidth="1"/>
+    <col min="12" max="12" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,63 +474,140 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
       </c>
       <c r="I3">
-        <v>56</v>
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <v>15</v>
+      </c>
+      <c r="M3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/MainAssignmnet/MoviesInfo.xlsx
+++ b/MainAssignmnet/MoviesInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vuchander\Python_Track\MainAssignmnet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444B7874-5B34-4DAC-957B-C5B3BC60EBB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E5D4E2-C47E-4978-8F6B-A0391DC15FA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Moviename</t>
   </si>
@@ -76,13 +76,10 @@
     <t>rajamouli</t>
   </si>
   <si>
-    <t>dammu</t>
-  </si>
-  <si>
-    <t>2hr45min</t>
-  </si>
-  <si>
-    <t>ntr</t>
+    <t>10:00-1:30</t>
+  </si>
+  <si>
+    <t>2 :00-5:30</t>
   </si>
   <si>
     <t>RRR</t>
@@ -92,18 +89,6 @@
   </si>
   <si>
     <t>Ramcharan,Ntr,aliaBhatt</t>
-  </si>
-  <si>
-    <t>2:00-5:00</t>
-  </si>
-  <si>
-    <t>10:00-1:30</t>
-  </si>
-  <si>
-    <t>10:00-1:00</t>
-  </si>
-  <si>
-    <t>2 :00-5:30</t>
   </si>
   <si>
     <t>2:00-5:30</t>
@@ -142,9 +127,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,10 +491,10 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -525,36 +509,36 @@
         <v>15</v>
       </c>
       <c r="M2">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J3">
         <v>10</v>
@@ -566,48 +550,7 @@
         <v>15</v>
       </c>
       <c r="M3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4">
-        <v>8</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4">
-        <v>15</v>
-      </c>
-      <c r="L4">
-        <v>15</v>
-      </c>
-      <c r="M4">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/MainAssignmnet/MoviesInfo.xlsx
+++ b/MainAssignmnet/MoviesInfo.xlsx
@@ -1,115 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vuchander\Python_Track\MainAssignmnet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E5D4E2-C47E-4978-8F6B-A0391DC15FA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
-  <si>
-    <t>Moviename</t>
-  </si>
-  <si>
-    <t>Genre Type</t>
-  </si>
-  <si>
-    <t>Length in Time</t>
-  </si>
-  <si>
-    <t>Cast Names</t>
-  </si>
-  <si>
-    <t>Director Name</t>
-  </si>
-  <si>
-    <t>Admin Rating</t>
-  </si>
-  <si>
-    <t>Timing-1</t>
-  </si>
-  <si>
-    <t>Timing-2</t>
-  </si>
-  <si>
-    <t>No of shows in a day</t>
-  </si>
-  <si>
-    <t>firstShow</t>
-  </si>
-  <si>
-    <t>Interval Time</t>
-  </si>
-  <si>
-    <t>Gap Between Shows</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>Bahubali</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>3 hr 15 min</t>
-  </si>
-  <si>
-    <t>Prabhas</t>
-  </si>
-  <si>
-    <t>rajamouli</t>
-  </si>
-  <si>
-    <t>10:00-1:30</t>
-  </si>
-  <si>
-    <t>2 :00-5:30</t>
-  </si>
-  <si>
-    <t>RRR</t>
-  </si>
-  <si>
-    <t>3hr15min</t>
-  </si>
-  <si>
-    <t>Ramcharan,Ntr,aliaBhatt</t>
-  </si>
-  <si>
-    <t>2:00-5:30</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -128,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -408,153 +385,211 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" customWidth="1"/>
-    <col min="9" max="9" width="16.90625" customWidth="1"/>
-    <col min="11" max="11" width="12.90625" customWidth="1"/>
-    <col min="12" max="12" width="20.08984375" customWidth="1"/>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15.08984375" customWidth="1" min="2" max="2"/>
+    <col width="13.08984375" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="14.1796875" customWidth="1" min="5" max="5"/>
+    <col width="17.7265625" customWidth="1" min="6" max="6"/>
+    <col width="13.36328125" customWidth="1" min="7" max="7"/>
+    <col width="13.6328125" customWidth="1" min="8" max="8"/>
+    <col width="16.90625" customWidth="1" min="9" max="9"/>
+    <col width="12.90625" customWidth="1" min="11" max="11"/>
+    <col width="20.08984375" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Moviename</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Genre Type</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Length in Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cast Names</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Director Name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Admin Rating</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Timing-1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Timing-2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>No of shows in a day</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>firstShow</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Interval Time</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Gap Between Shows</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bahubali</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3 hr 15 min</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Prabhas</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>rajamouli</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10:00-1:30</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2 :00-5:30</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15</v>
+      </c>
+      <c r="M2" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RRR</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3hr15min</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ramcharan,Ntr,aliaBhatt</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>rajamouli</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10:00-1:30</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2:00-5:30</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="J3" t="n">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="K3" t="n">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2">
+      <c r="L3" t="n">
         <v>15</v>
       </c>
-      <c r="L2">
-        <v>15</v>
-      </c>
-      <c r="M2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>15</v>
-      </c>
-      <c r="L3">
-        <v>15</v>
-      </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/MainAssignmnet/MoviesInfo.xlsx
+++ b/MainAssignmnet/MoviesInfo.xlsx
@@ -396,7 +396,7 @@
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="15.08984375" customWidth="1" min="2" max="2"/>
@@ -530,7 +530,7 @@
         <v>15</v>
       </c>
       <c r="M2" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
